--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_es.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E344FC-E60A-470F-A0F7-8B282F907BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C6A8B-80E1-1A4E-811C-B4555161A96C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -506,16 +506,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -539,9 +533,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,21 +840,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -875,7 +868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3200102</v>
       </c>
@@ -886,7 +879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3200136</v>
       </c>
@@ -897,7 +890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3200169</v>
       </c>
@@ -908,7 +901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3200201</v>
       </c>
@@ -919,7 +912,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3200300</v>
       </c>
@@ -930,7 +923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3200359</v>
       </c>
@@ -941,7 +934,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3200409</v>
       </c>
@@ -952,7 +945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3200508</v>
       </c>
@@ -963,7 +956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3200607</v>
       </c>
@@ -974,7 +967,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3200706</v>
       </c>
@@ -985,7 +978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3200805</v>
       </c>
@@ -996,7 +989,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3200904</v>
       </c>
@@ -1007,7 +1000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3201001</v>
       </c>
@@ -1018,7 +1011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3201100</v>
       </c>
@@ -1029,7 +1022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3201159</v>
       </c>
@@ -1040,7 +1033,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3201209</v>
       </c>
@@ -1051,7 +1044,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3201308</v>
       </c>
@@ -1062,7 +1055,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3201407</v>
       </c>
@@ -1073,7 +1066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3201506</v>
       </c>
@@ -1084,7 +1077,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3201605</v>
       </c>
@@ -1095,7 +1088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3201704</v>
       </c>
@@ -1106,7 +1099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3201803</v>
       </c>
@@ -1117,7 +1110,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3201902</v>
       </c>
@@ -1128,7 +1121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3202009</v>
       </c>
@@ -1139,7 +1132,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3202108</v>
       </c>
@@ -1150,7 +1143,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3202207</v>
       </c>
@@ -1161,7 +1154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3202256</v>
       </c>
@@ -1172,7 +1165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3202306</v>
       </c>
@@ -1183,7 +1176,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3202405</v>
       </c>
@@ -1194,7 +1187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3202454</v>
       </c>
@@ -1205,7 +1198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3202504</v>
       </c>
@@ -1216,7 +1209,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3202553</v>
       </c>
@@ -1227,7 +1220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3202603</v>
       </c>
@@ -1238,7 +1231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3202652</v>
       </c>
@@ -1249,7 +1242,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3202702</v>
       </c>
@@ -1260,7 +1253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3202801</v>
       </c>
@@ -1271,7 +1264,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3202900</v>
       </c>
@@ -1282,7 +1275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3203007</v>
       </c>
@@ -1293,7 +1286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3203056</v>
       </c>
@@ -1304,7 +1297,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3203106</v>
       </c>
@@ -1315,7 +1308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3203130</v>
       </c>
@@ -1326,7 +1319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3203163</v>
       </c>
@@ -1337,7 +1330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3203205</v>
       </c>
@@ -1348,7 +1341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3203304</v>
       </c>
@@ -1359,7 +1352,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3203320</v>
       </c>
@@ -1370,7 +1363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3203346</v>
       </c>
@@ -1381,7 +1374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3203353</v>
       </c>
@@ -1392,7 +1385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3203403</v>
       </c>
@@ -1403,7 +1396,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3203502</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3203601</v>
       </c>
@@ -1425,7 +1418,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3203700</v>
       </c>
@@ -1436,7 +1429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3203809</v>
       </c>
@@ -1447,7 +1440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3203908</v>
       </c>
@@ -1458,7 +1451,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3204005</v>
       </c>
@@ -1469,7 +1462,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3204054</v>
       </c>
@@ -1480,7 +1473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3204104</v>
       </c>
@@ -1491,7 +1484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3204203</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3204252</v>
       </c>
@@ -1513,7 +1506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3204302</v>
       </c>
@@ -1524,7 +1517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3204351</v>
       </c>
@@ -1535,7 +1528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3204401</v>
       </c>
@@ -1546,7 +1539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3204500</v>
       </c>
@@ -1557,7 +1550,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3204559</v>
       </c>
@@ -1568,7 +1561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3204609</v>
       </c>
@@ -1579,7 +1572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3204658</v>
       </c>
@@ -1590,7 +1583,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3204708</v>
       </c>
@@ -1601,7 +1594,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3204807</v>
       </c>
@@ -1612,7 +1605,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3204906</v>
       </c>
@@ -1623,7 +1616,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3204955</v>
       </c>
@@ -1634,7 +1627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3205002</v>
       </c>
@@ -1645,7 +1638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3205010</v>
       </c>
@@ -1656,7 +1649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3205036</v>
       </c>
@@ -1667,7 +1660,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3205069</v>
       </c>
@@ -1678,7 +1671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3205101</v>
       </c>
@@ -1689,7 +1682,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3205150</v>
       </c>
@@ -1700,7 +1693,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3205176</v>
       </c>
@@ -1711,7 +1704,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3205200</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3205309</v>
       </c>
@@ -1732,9 +1725,6 @@
       <c r="C79" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
